--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Semi_Final/HCL Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Semi_Final/HCL Technologies Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of HCL Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,70 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Jun 05</t>
-  </si>
-  <si>
-    <t>Jun 06</t>
-  </si>
-  <si>
-    <t>Jun 07</t>
-  </si>
-  <si>
-    <t>Jun 08</t>
-  </si>
-  <si>
-    <t>Jun 09</t>
-  </si>
-  <si>
-    <t>Jun 10</t>
-  </si>
-  <si>
-    <t>Jun 11</t>
-  </si>
-  <si>
-    <t>Jun 12</t>
-  </si>
-  <si>
-    <t>Jun 13</t>
-  </si>
-  <si>
-    <t>Jun 14</t>
-  </si>
-  <si>
-    <t>Jun 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of HCL Technologies(in Rs. Cr.)</t>
@@ -215,9 +224,6 @@
     <t>Quarterly Results of HCL Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +281,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>06</t>
   </si>
   <si>
     <t>09</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>63.84</v>
-      </c>
-      <c r="C2">
-        <v>2796.14</v>
       </c>
       <c r="D2">
         <v>2796.14</v>
       </c>
       <c r="E2">
+        <v>2796.14</v>
+      </c>
+      <c r="F2">
         <v>2859.98</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>171.19</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>685.04</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3643.35</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>300.15</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>431.73</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3093.89</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>549.46</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3643.35</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>64.69</v>
-      </c>
-      <c r="C3">
-        <v>2511.18</v>
       </c>
       <c r="D3">
         <v>2511.18</v>
       </c>
       <c r="E3">
+        <v>2511.18</v>
+      </c>
+      <c r="F3">
         <v>2575.87</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>235.13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1135.1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3725.68</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>427.84</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>689.3099999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2614.9</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1110.78</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3725.68</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>132.74</v>
-      </c>
-      <c r="C4">
-        <v>3292.28</v>
       </c>
       <c r="D4">
         <v>3292.28</v>
       </c>
       <c r="E4">
+        <v>3292.28</v>
+      </c>
+      <c r="F4">
         <v>3425.02</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>144.52</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1433.76</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4899.67</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>541.8099999999999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>882.95</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2901.65</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1998.02</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4899.67</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>133.27</v>
-      </c>
-      <c r="C5">
-        <v>3079.85</v>
       </c>
       <c r="D5">
         <v>3079.85</v>
       </c>
       <c r="E5">
+        <v>3079.85</v>
+      </c>
+      <c r="F5">
         <v>3213.12</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>778.79</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2552.39</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5792.55</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>535.92</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1144.32</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3082.26</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2710.29</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5792.55</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>134.05</v>
-      </c>
-      <c r="C6">
-        <v>3353.72</v>
       </c>
       <c r="D6">
         <v>3353.72</v>
       </c>
       <c r="E6">
+        <v>3353.72</v>
+      </c>
+      <c r="F6">
         <v>3487.77</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>854.83</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3080.78</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6597.36</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>608.86</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1274.54</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2064.74</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4532.62</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6597.36</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>135.76</v>
-      </c>
-      <c r="C7">
-        <v>4798.09</v>
       </c>
       <c r="D7">
         <v>4798.09</v>
       </c>
       <c r="E7">
+        <v>4798.09</v>
+      </c>
+      <c r="F7">
         <v>4933.85</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>531.9299999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2522.96</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8490.860000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>632.28</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1421.03</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3761.92</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4728.94</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8490.860000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>137.74</v>
-      </c>
-      <c r="C8">
-        <v>5720.41</v>
       </c>
       <c r="D8">
         <v>5720.41</v>
       </c>
       <c r="E8">
+        <v>5720.41</v>
+      </c>
+      <c r="F8">
         <v>5858.15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1323.2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2165.77</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9064.799999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1188.53</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1814.62</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4932.23</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>4132.57</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>9064.799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>138.66</v>
-      </c>
-      <c r="C9">
-        <v>6465.15</v>
       </c>
       <c r="D9">
         <v>6465.15</v>
       </c>
       <c r="E9">
+        <v>6465.15</v>
+      </c>
+      <c r="F9">
         <v>6603.81</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1883.84</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3231.99</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10877.03</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1552.39</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2163.26</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6198.32</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4678.71</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10877.03</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>139.37</v>
-      </c>
-      <c r="C10">
-        <v>10093.36</v>
       </c>
       <c r="D10">
         <v>10093.36</v>
       </c>
       <c r="E10">
+        <v>10093.36</v>
+      </c>
+      <c r="F10">
         <v>10232.73</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2978.45</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4586.03</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15959.33</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1896.95</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2442.37</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7325.57</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8633.76</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>15959.33</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>140</v>
-      </c>
-      <c r="C11">
-        <v>15605.61</v>
       </c>
       <c r="D11">
         <v>15605.61</v>
       </c>
       <c r="E11">
+        <v>15605.61</v>
+      </c>
+      <c r="F11">
         <v>15745.61</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4006.16</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5343.08</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>21814.5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2404.3</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2967.07</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>7807.98</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>14006.52</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>21814.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>281.2</v>
-      </c>
-      <c r="C12">
-        <v>19124.53</v>
       </c>
       <c r="D12">
         <v>19124.53</v>
       </c>
       <c r="E12">
+        <v>19124.53</v>
+      </c>
+      <c r="F12">
         <v>19405.73</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3643.67</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5000.38</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>24915.06</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3024.98</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3608.18</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>8740.780000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>16174.28</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>24915.06</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
         <v>282.08</v>
-      </c>
-      <c r="C13">
-        <v>21214.49</v>
       </c>
       <c r="D13">
         <v>21214.49</v>
       </c>
       <c r="E13">
+        <v>21214.49</v>
+      </c>
+      <c r="F13">
         <v>21496.57</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3962.7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4512.99</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>26588.04</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2762.9</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3398.36</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>8947.860000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17640.18</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>26588.04</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
         <v>285</v>
-      </c>
-      <c r="C14">
-        <v>25688</v>
       </c>
       <c r="D14">
         <v>25688</v>
       </c>
       <c r="E14">
+        <v>25688</v>
+      </c>
+      <c r="F14">
         <v>25973</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5319</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5915</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>32371</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3126</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8400</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>14255</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18116</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>32371</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
         <v>278</v>
-      </c>
-      <c r="C15">
-        <v>27285</v>
       </c>
       <c r="D15">
         <v>27285</v>
       </c>
       <c r="E15">
+        <v>27285</v>
+      </c>
+      <c r="F15">
         <v>27563</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4020</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4693</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>32818</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3293</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10726</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>17370</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15448</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>32818</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
         <v>271</v>
-      </c>
-      <c r="C16">
-        <v>30168</v>
       </c>
       <c r="D16">
         <v>30168</v>
       </c>
       <c r="E16">
+        <v>30168</v>
+      </c>
+      <c r="F16">
         <v>30439</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3871</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6379</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>37456</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3507</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11447</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>18749</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>18707</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>37456</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
         <v>543</v>
-      </c>
-      <c r="C17">
-        <v>36753</v>
       </c>
       <c r="D17">
         <v>36753</v>
       </c>
       <c r="E17">
+        <v>36753</v>
+      </c>
+      <c r="F17">
         <v>37296</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>11499</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13941</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>53515</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4571</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>22932</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>29985</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>23530</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>53515</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
         <v>543</v>
-      </c>
-      <c r="C18">
-        <v>43010</v>
       </c>
       <c r="D18">
         <v>43010</v>
       </c>
       <c r="E18">
+        <v>43010</v>
+      </c>
+      <c r="F18">
         <v>43553</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7085</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>10019</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>55361</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4502</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>21150</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>27647</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>27714</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>55361</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
         <v>543</v>
-      </c>
-      <c r="C19">
-        <v>42048</v>
       </c>
       <c r="D19">
         <v>42048</v>
       </c>
       <c r="E19">
+        <v>42048</v>
+      </c>
+      <c r="F19">
         <v>42591</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5958</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>9043</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>53423</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4769</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19603</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>26536</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>26887</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>53423</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
         <v>543</v>
-      </c>
-      <c r="C20">
-        <v>40561</v>
       </c>
       <c r="D20">
         <v>40561</v>
       </c>
       <c r="E20">
+        <v>40561</v>
+      </c>
+      <c r="F20">
         <v>41104</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5594</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>10667</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>53360</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4551</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>17956</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>24789</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>28571</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>53360</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
         <v>543</v>
-      </c>
-      <c r="C21">
-        <v>38927</v>
       </c>
       <c r="D21">
         <v>38927</v>
       </c>
       <c r="E21">
+        <v>38927</v>
+      </c>
+      <c r="F21">
         <v>39470</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6003</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>10464</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>52307</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4273</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>16355</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>22762</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>29545</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>52307</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>338.93</v>
+      </c>
+      <c r="D2">
+        <v>265.74</v>
+      </c>
+      <c r="E2">
+        <v>239.51</v>
+      </c>
+      <c r="F2">
+        <v>-493.71</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>11.54</v>
+      </c>
+      <c r="I2">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="J2">
+        <v>84.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>653.83</v>
+      </c>
+      <c r="D3">
+        <v>774.04</v>
+      </c>
+      <c r="E3">
+        <v>-133.33</v>
+      </c>
+      <c r="F3">
+        <v>-641.79</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-1.08</v>
+      </c>
+      <c r="I3">
+        <v>107.3</v>
+      </c>
+      <c r="J3">
+        <v>106.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1177.69</v>
+      </c>
+      <c r="D4">
+        <v>997.9299999999999</v>
+      </c>
+      <c r="E4">
+        <v>-341.46</v>
+      </c>
+      <c r="F4">
+        <v>-381.57</v>
+      </c>
+      <c r="G4">
+        <v>0.18</v>
+      </c>
+      <c r="H4">
+        <v>274.9</v>
+      </c>
+      <c r="I4">
+        <v>106.22</v>
+      </c>
+      <c r="J4">
+        <v>380.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>875.25</v>
+      </c>
+      <c r="D5">
+        <v>1056.84</v>
+      </c>
+      <c r="E5">
+        <v>-148.53</v>
+      </c>
+      <c r="F5">
+        <v>-602.26</v>
+      </c>
+      <c r="G5">
+        <v>0.11</v>
+      </c>
+      <c r="H5">
+        <v>305.94</v>
+      </c>
+      <c r="I5">
+        <v>380.94</v>
+      </c>
+      <c r="J5">
+        <v>686.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1193.92</v>
+      </c>
+      <c r="D6">
+        <v>587.9400000000001</v>
+      </c>
+      <c r="E6">
+        <v>306.83</v>
+      </c>
+      <c r="F6">
+        <v>-215.82</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>678.95</v>
+      </c>
+      <c r="I6">
+        <v>686.88</v>
+      </c>
+      <c r="J6">
+        <v>1365.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1152.82</v>
+      </c>
+      <c r="D7">
+        <v>739.26</v>
+      </c>
+      <c r="E7">
+        <v>-1399.11</v>
+      </c>
+      <c r="F7">
+        <v>583.38</v>
+      </c>
+      <c r="G7">
+        <v>-2.69</v>
+      </c>
+      <c r="H7">
+        <v>-79.16</v>
+      </c>
+      <c r="I7">
+        <v>144</v>
+      </c>
+      <c r="J7">
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1289.88</v>
+      </c>
+      <c r="D8">
+        <v>1519.39</v>
+      </c>
+      <c r="E8">
+        <v>-535.03</v>
+      </c>
+      <c r="F8">
+        <v>-882.58</v>
+      </c>
+      <c r="G8">
+        <v>1.08</v>
+      </c>
+      <c r="H8">
+        <v>102.86</v>
+      </c>
+      <c r="I8">
+        <v>64.84</v>
+      </c>
+      <c r="J8">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>2360.74</v>
+      </c>
+      <c r="D9">
+        <v>2160.1</v>
+      </c>
+      <c r="E9">
+        <v>-1342.76</v>
+      </c>
+      <c r="F9">
+        <v>-837.12</v>
+      </c>
+      <c r="G9">
+        <v>-13.23</v>
+      </c>
+      <c r="H9">
+        <v>-33.01</v>
+      </c>
+      <c r="I9">
+        <v>167.7</v>
+      </c>
+      <c r="J9">
+        <v>134.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>4451.2</v>
+      </c>
+      <c r="D10">
+        <v>4170.15</v>
+      </c>
+      <c r="E10">
+        <v>-2985.48</v>
+      </c>
+      <c r="F10">
+        <v>-1175.37</v>
+      </c>
+      <c r="G10">
+        <v>-9.779999999999999</v>
+      </c>
+      <c r="H10">
+        <v>21.12</v>
+      </c>
+      <c r="I10">
+        <v>134.69</v>
+      </c>
+      <c r="J10">
+        <v>155.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>7397.66</v>
+      </c>
+      <c r="D11">
+        <v>6147.22</v>
+      </c>
+      <c r="E11">
+        <v>-4655.54</v>
+      </c>
+      <c r="F11">
+        <v>-1397.67</v>
+      </c>
+      <c r="G11">
+        <v>-9.09</v>
+      </c>
+      <c r="H11">
+        <v>84.92</v>
+      </c>
+      <c r="I11">
+        <v>155.81</v>
+      </c>
+      <c r="J11">
+        <v>240.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>7698.54</v>
+      </c>
+      <c r="D12">
+        <v>5335.67</v>
+      </c>
+      <c r="E12">
+        <v>-1763.04</v>
+      </c>
+      <c r="F12">
+        <v>-3360.21</v>
+      </c>
+      <c r="G12">
+        <v>-20.42</v>
+      </c>
+      <c r="H12">
+        <v>192</v>
+      </c>
+      <c r="I12">
+        <v>240.73</v>
+      </c>
+      <c r="J12">
+        <v>432.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>5781.55</v>
+      </c>
+      <c r="D13">
+        <v>3154.3</v>
+      </c>
+      <c r="E13">
+        <v>-770.52</v>
+      </c>
+      <c r="F13">
+        <v>-2698.98</v>
+      </c>
+      <c r="G13">
+        <v>7.64</v>
+      </c>
+      <c r="H13">
+        <v>-307.56</v>
+      </c>
+      <c r="I13">
+        <v>432.73</v>
+      </c>
+      <c r="J13">
+        <v>125.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>8276</v>
+      </c>
+      <c r="D14">
+        <v>6995</v>
+      </c>
+      <c r="E14">
+        <v>-2643</v>
+      </c>
+      <c r="F14">
+        <v>-4112</v>
+      </c>
+      <c r="G14">
+        <v>-13</v>
+      </c>
+      <c r="H14">
+        <v>227</v>
+      </c>
+      <c r="I14">
+        <v>125</v>
+      </c>
+      <c r="J14">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>9125</v>
+      </c>
+      <c r="D15">
+        <v>6339</v>
+      </c>
+      <c r="E15">
+        <v>-973</v>
+      </c>
+      <c r="F15">
+        <v>-5547</v>
+      </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>-142</v>
+      </c>
+      <c r="I15">
+        <v>352</v>
+      </c>
+      <c r="J15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>9931</v>
+      </c>
+      <c r="D16">
+        <v>8676</v>
+      </c>
+      <c r="E16">
+        <v>995</v>
+      </c>
+      <c r="F16">
+        <v>-5335</v>
+      </c>
+      <c r="G16">
+        <v>-23</v>
+      </c>
+      <c r="H16">
+        <v>4313</v>
+      </c>
+      <c r="I16">
+        <v>210</v>
+      </c>
+      <c r="J16">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>11177</v>
+      </c>
+      <c r="D17">
+        <v>9855</v>
+      </c>
+      <c r="E17">
+        <v>-11091</v>
+      </c>
+      <c r="F17">
+        <v>-1988</v>
+      </c>
+      <c r="G17">
+        <v>-8</v>
+      </c>
+      <c r="H17">
+        <v>-3232</v>
+      </c>
+      <c r="I17">
+        <v>4523</v>
+      </c>
+      <c r="J17">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>12410</v>
+      </c>
+      <c r="D18">
+        <v>15765</v>
+      </c>
+      <c r="E18">
+        <v>-4548</v>
+      </c>
+      <c r="F18">
+        <v>-9649</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>1582</v>
+      </c>
+      <c r="I18">
+        <v>1294</v>
+      </c>
+      <c r="J18">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>13268</v>
+      </c>
+      <c r="D19">
+        <v>10591</v>
+      </c>
+      <c r="E19">
+        <v>2232</v>
+      </c>
+      <c r="F19">
+        <v>-12775</v>
+      </c>
+      <c r="G19">
+        <v>-17</v>
+      </c>
+      <c r="H19">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>2876</v>
+      </c>
+      <c r="J19">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>14716</v>
+      </c>
+      <c r="D20">
+        <v>13538</v>
+      </c>
+      <c r="E20">
+        <v>-798</v>
+      </c>
+      <c r="F20">
+        <v>-13267</v>
+      </c>
+      <c r="G20">
+        <v>-6</v>
+      </c>
+      <c r="H20">
+        <v>-533</v>
+      </c>
+      <c r="I20">
+        <v>2907</v>
+      </c>
+      <c r="J20">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>338.93</v>
-      </c>
-      <c r="C2">
-        <v>265.74</v>
-      </c>
-      <c r="D2">
-        <v>239.51</v>
-      </c>
-      <c r="E2">
-        <v>-493.71</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>11.54</v>
-      </c>
-      <c r="H2">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="I2">
-        <v>84.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>653.83</v>
-      </c>
-      <c r="C3">
-        <v>774.04</v>
-      </c>
-      <c r="D3">
-        <v>-133.33</v>
-      </c>
-      <c r="E3">
-        <v>-641.79</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-1.08</v>
-      </c>
-      <c r="H3">
-        <v>107.3</v>
-      </c>
-      <c r="I3">
-        <v>106.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1177.69</v>
-      </c>
-      <c r="C4">
-        <v>997.9299999999999</v>
-      </c>
-      <c r="D4">
-        <v>-341.46</v>
-      </c>
-      <c r="E4">
-        <v>-381.57</v>
-      </c>
-      <c r="F4">
-        <v>0.18</v>
-      </c>
-      <c r="G4">
-        <v>274.9</v>
-      </c>
-      <c r="H4">
-        <v>106.22</v>
-      </c>
-      <c r="I4">
-        <v>380.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>875.25</v>
-      </c>
-      <c r="C5">
-        <v>1056.84</v>
-      </c>
-      <c r="D5">
-        <v>-148.53</v>
-      </c>
-      <c r="E5">
-        <v>-602.26</v>
-      </c>
-      <c r="F5">
-        <v>0.11</v>
-      </c>
-      <c r="G5">
-        <v>305.94</v>
-      </c>
-      <c r="H5">
-        <v>380.94</v>
-      </c>
-      <c r="I5">
-        <v>686.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1193.92</v>
-      </c>
-      <c r="C6">
-        <v>587.9400000000001</v>
-      </c>
-      <c r="D6">
-        <v>306.83</v>
-      </c>
-      <c r="E6">
-        <v>-215.82</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>678.95</v>
-      </c>
-      <c r="H6">
-        <v>686.88</v>
-      </c>
-      <c r="I6">
-        <v>1365.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1152.82</v>
-      </c>
-      <c r="C7">
-        <v>739.26</v>
-      </c>
-      <c r="D7">
-        <v>-1399.11</v>
-      </c>
-      <c r="E7">
-        <v>583.38</v>
-      </c>
-      <c r="F7">
-        <v>-2.69</v>
-      </c>
-      <c r="G7">
-        <v>-79.16</v>
-      </c>
-      <c r="H7">
-        <v>144</v>
-      </c>
-      <c r="I7">
-        <v>64.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1289.88</v>
-      </c>
-      <c r="C8">
-        <v>1519.39</v>
-      </c>
-      <c r="D8">
-        <v>-535.03</v>
-      </c>
-      <c r="E8">
-        <v>-882.58</v>
-      </c>
-      <c r="F8">
-        <v>1.08</v>
-      </c>
-      <c r="G8">
-        <v>102.86</v>
-      </c>
-      <c r="H8">
-        <v>64.84</v>
-      </c>
-      <c r="I8">
-        <v>167.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>2360.74</v>
-      </c>
-      <c r="C9">
-        <v>2160.1</v>
-      </c>
-      <c r="D9">
-        <v>-1342.76</v>
-      </c>
-      <c r="E9">
-        <v>-837.12</v>
-      </c>
-      <c r="F9">
-        <v>-13.23</v>
-      </c>
-      <c r="G9">
-        <v>-33.01</v>
-      </c>
-      <c r="H9">
-        <v>167.7</v>
-      </c>
-      <c r="I9">
-        <v>134.69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>4451.2</v>
-      </c>
-      <c r="C10">
-        <v>4170.15</v>
-      </c>
-      <c r="D10">
-        <v>-2985.48</v>
-      </c>
-      <c r="E10">
-        <v>-1175.37</v>
-      </c>
-      <c r="F10">
-        <v>-9.779999999999999</v>
-      </c>
-      <c r="G10">
-        <v>21.12</v>
-      </c>
-      <c r="H10">
-        <v>134.69</v>
-      </c>
-      <c r="I10">
-        <v>155.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>7397.66</v>
-      </c>
-      <c r="C11">
-        <v>6147.22</v>
-      </c>
-      <c r="D11">
-        <v>-4655.54</v>
-      </c>
-      <c r="E11">
-        <v>-1397.67</v>
-      </c>
-      <c r="F11">
-        <v>-9.09</v>
-      </c>
-      <c r="G11">
-        <v>84.92</v>
-      </c>
-      <c r="H11">
-        <v>155.81</v>
-      </c>
-      <c r="I11">
-        <v>240.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>7698.54</v>
-      </c>
-      <c r="C12">
-        <v>5335.67</v>
-      </c>
-      <c r="D12">
-        <v>-1763.04</v>
-      </c>
-      <c r="E12">
-        <v>-3360.21</v>
-      </c>
-      <c r="F12">
-        <v>-20.42</v>
-      </c>
-      <c r="G12">
-        <v>192</v>
-      </c>
-      <c r="H12">
-        <v>240.73</v>
-      </c>
-      <c r="I12">
-        <v>432.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>5781.55</v>
-      </c>
-      <c r="C13">
-        <v>3154.3</v>
-      </c>
-      <c r="D13">
-        <v>-770.52</v>
-      </c>
-      <c r="E13">
-        <v>-2698.98</v>
-      </c>
-      <c r="F13">
-        <v>7.64</v>
-      </c>
-      <c r="G13">
-        <v>-307.56</v>
-      </c>
-      <c r="H13">
-        <v>432.73</v>
-      </c>
-      <c r="I13">
-        <v>125.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>8276</v>
-      </c>
-      <c r="C14">
-        <v>6995</v>
-      </c>
-      <c r="D14">
-        <v>-2643</v>
-      </c>
-      <c r="E14">
-        <v>-4112</v>
-      </c>
-      <c r="F14">
-        <v>-13</v>
-      </c>
-      <c r="G14">
-        <v>227</v>
-      </c>
-      <c r="H14">
-        <v>125</v>
-      </c>
-      <c r="I14">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>9125</v>
-      </c>
-      <c r="C15">
-        <v>6339</v>
-      </c>
-      <c r="D15">
-        <v>-973</v>
-      </c>
-      <c r="E15">
-        <v>-5547</v>
-      </c>
-      <c r="F15">
-        <v>39</v>
-      </c>
-      <c r="G15">
-        <v>-142</v>
-      </c>
-      <c r="H15">
-        <v>352</v>
-      </c>
-      <c r="I15">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>9931</v>
-      </c>
-      <c r="C16">
-        <v>8676</v>
-      </c>
-      <c r="D16">
-        <v>995</v>
-      </c>
-      <c r="E16">
-        <v>-5335</v>
-      </c>
-      <c r="F16">
-        <v>-23</v>
-      </c>
-      <c r="G16">
-        <v>4313</v>
-      </c>
-      <c r="H16">
-        <v>210</v>
-      </c>
-      <c r="I16">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>11177</v>
-      </c>
-      <c r="C17">
-        <v>9855</v>
-      </c>
-      <c r="D17">
-        <v>-11091</v>
-      </c>
-      <c r="E17">
-        <v>-1988</v>
-      </c>
-      <c r="F17">
+      <c r="C21">
+        <v>15456</v>
+      </c>
+      <c r="D21">
+        <v>15282</v>
+      </c>
+      <c r="E21">
+        <v>-2331</v>
+      </c>
+      <c r="F21">
+        <v>-14480</v>
+      </c>
+      <c r="G21">
         <v>-8</v>
       </c>
-      <c r="G17">
-        <v>-3232</v>
-      </c>
-      <c r="H17">
-        <v>4523</v>
-      </c>
-      <c r="I17">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>12410</v>
-      </c>
-      <c r="C18">
-        <v>15765</v>
-      </c>
-      <c r="D18">
-        <v>-4548</v>
-      </c>
-      <c r="E18">
-        <v>-9649</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>1582</v>
-      </c>
-      <c r="H18">
-        <v>1294</v>
-      </c>
-      <c r="I18">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>13268</v>
-      </c>
-      <c r="C19">
-        <v>10591</v>
-      </c>
-      <c r="D19">
-        <v>2232</v>
-      </c>
-      <c r="E19">
-        <v>-12775</v>
-      </c>
-      <c r="F19">
-        <v>-17</v>
-      </c>
-      <c r="G19">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>2876</v>
-      </c>
-      <c r="I19">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>14716</v>
-      </c>
-      <c r="C20">
-        <v>13538</v>
-      </c>
-      <c r="D20">
-        <v>-798</v>
-      </c>
-      <c r="E20">
-        <v>-13267</v>
-      </c>
-      <c r="F20">
-        <v>-6</v>
-      </c>
-      <c r="G20">
-        <v>-533</v>
-      </c>
-      <c r="H20">
-        <v>2907</v>
-      </c>
-      <c r="I20">
+      <c r="H21">
+        <v>-1537</v>
+      </c>
+      <c r="I21">
         <v>2374</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>15456</v>
-      </c>
-      <c r="C21">
-        <v>15282</v>
-      </c>
-      <c r="D21">
-        <v>-2331</v>
-      </c>
-      <c r="E21">
-        <v>-14480</v>
-      </c>
-      <c r="F21">
-        <v>-8</v>
-      </c>
-      <c r="G21">
-        <v>-1537</v>
-      </c>
-      <c r="H21">
-        <v>2374</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>837</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1447.01</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1447.01</v>
@@ -2328,66 +2421,69 @@
         <v>1447.01</v>
       </c>
       <c r="E2">
+        <v>1447.01</v>
+      </c>
+      <c r="F2">
         <v>61.54</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1508.55</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>304.93</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>488.54</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.12</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>67.56</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>303.47</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1169.62</v>
-      </c>
-      <c r="M2">
-        <v>338.93</v>
       </c>
       <c r="N2">
         <v>338.93</v>
       </c>
       <c r="O2">
+        <v>338.93</v>
+      </c>
+      <c r="P2">
         <v>11.19</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.22</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>12.15</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>326.78</v>
-      </c>
-      <c r="S2">
-        <v>329.27</v>
       </c>
       <c r="T2">
         <v>329.27</v>
       </c>
       <c r="U2">
-        <v>10.32</v>
+        <v>329.27</v>
       </c>
       <c r="V2">
         <v>10.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>3032.92</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>3032.92</v>
@@ -2396,46 +2492,46 @@
         <v>3032.92</v>
       </c>
       <c r="E3">
+        <v>3032.92</v>
+      </c>
+      <c r="F3">
         <v>0.68</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3033.6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>476.97</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1123.51</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10.9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>138.8</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>629.59</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2379.77</v>
-      </c>
-      <c r="M3">
-        <v>653.83</v>
       </c>
       <c r="N3">
         <v>653.83</v>
       </c>
       <c r="O3">
+        <v>653.83</v>
+      </c>
+      <c r="P3">
         <v>10.67</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-6.05</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>15.45</v>
-      </c>
-      <c r="R3">
-        <v>638.38</v>
       </c>
       <c r="S3">
         <v>638.38</v>
@@ -2444,18 +2540,21 @@
         <v>638.38</v>
       </c>
       <c r="U3">
-        <v>19.74</v>
+        <v>638.38</v>
       </c>
       <c r="V3">
         <v>19.74</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>19.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3768.62</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3768.62</v>
@@ -2464,46 +2563,46 @@
         <v>3768.62</v>
       </c>
       <c r="E4">
+        <v>3768.62</v>
+      </c>
+      <c r="F4">
         <v>439.42</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4208.04</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>577.24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1322.59</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>11.3</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>178.21</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>941.01</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3030.35</v>
-      </c>
-      <c r="M4">
-        <v>1177.69</v>
       </c>
       <c r="N4">
         <v>1177.69</v>
       </c>
       <c r="O4">
+        <v>1177.69</v>
+      </c>
+      <c r="P4">
         <v>76.03</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-12.01</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>75.87</v>
-      </c>
-      <c r="R4">
-        <v>1101.82</v>
       </c>
       <c r="S4">
         <v>1101.82</v>
@@ -2512,18 +2611,21 @@
         <v>1101.82</v>
       </c>
       <c r="U4">
-        <v>16.6</v>
+        <v>1101.82</v>
       </c>
       <c r="V4">
         <v>16.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>4615.39</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>4615.39</v>
@@ -2532,46 +2634,46 @@
         <v>4615.39</v>
       </c>
       <c r="E5">
+        <v>4615.39</v>
+      </c>
+      <c r="F5">
         <v>-108.91</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4506.48</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>746.92</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1621.35</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>17.27</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>217.87</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1027.82</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3631.23</v>
-      </c>
-      <c r="M5">
-        <v>875.25</v>
       </c>
       <c r="N5">
         <v>875.25</v>
       </c>
       <c r="O5">
+        <v>875.25</v>
+      </c>
+      <c r="P5">
         <v>107.68</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-31.98</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>94.59999999999999</v>
-      </c>
-      <c r="R5">
-        <v>780.65</v>
       </c>
       <c r="S5">
         <v>780.65</v>
@@ -2580,18 +2682,21 @@
         <v>780.65</v>
       </c>
       <c r="U5">
-        <v>11.72</v>
+        <v>780.65</v>
       </c>
       <c r="V5">
         <v>11.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>4675.09</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>4675.09</v>
@@ -2600,46 +2705,46 @@
         <v>4675.09</v>
       </c>
       <c r="E6">
+        <v>4675.09</v>
+      </c>
+      <c r="F6">
         <v>91.48999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4766.58</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>492.39</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1874.1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>25.35</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>251.89</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>828.65</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3572.66</v>
-      </c>
-      <c r="M6">
-        <v>1193.92</v>
       </c>
       <c r="N6">
         <v>1193.92</v>
       </c>
       <c r="O6">
+        <v>1193.92</v>
+      </c>
+      <c r="P6">
         <v>208.4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-31.88</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>196.61</v>
-      </c>
-      <c r="R6">
-        <v>997.3099999999999</v>
       </c>
       <c r="S6">
         <v>997.3099999999999</v>
@@ -2648,18 +2753,21 @@
         <v>997.3099999999999</v>
       </c>
       <c r="U6">
-        <v>14.88</v>
+        <v>997.3099999999999</v>
       </c>
       <c r="V6">
         <v>14.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>5078.76</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>5078.76</v>
@@ -2668,66 +2776,69 @@
         <v>5078.76</v>
       </c>
       <c r="E7">
+        <v>5078.76</v>
+      </c>
+      <c r="F7">
         <v>114.56</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5193.32</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>434.77</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2137.82</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>97.77</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>274.03</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>923.71</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4040.5</v>
-      </c>
-      <c r="M7">
-        <v>1152.82</v>
       </c>
       <c r="N7">
         <v>1152.82</v>
       </c>
       <c r="O7">
+        <v>1152.82</v>
+      </c>
+      <c r="P7">
         <v>104.98</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-4.97</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>100.01</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1052.81</v>
-      </c>
-      <c r="S7">
-        <v>1056.24</v>
       </c>
       <c r="T7">
         <v>1056.24</v>
       </c>
       <c r="U7">
-        <v>15.56</v>
+        <v>1056.24</v>
       </c>
       <c r="V7">
         <v>15.56</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>6794.48</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>6794.48</v>
@@ -2736,46 +2847,46 @@
         <v>6794.48</v>
       </c>
       <c r="E8">
+        <v>6794.48</v>
+      </c>
+      <c r="F8">
         <v>166.27</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6960.75</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3259.09</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>101.39</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>291.37</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1853.71</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5670.87</v>
-      </c>
-      <c r="M8">
-        <v>1289.88</v>
       </c>
       <c r="N8">
         <v>1289.88</v>
       </c>
       <c r="O8">
+        <v>1289.88</v>
+      </c>
+      <c r="P8">
         <v>130.27</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-38.67</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>91.59999999999999</v>
-      </c>
-      <c r="R8">
-        <v>1198.28</v>
       </c>
       <c r="S8">
         <v>1198.28</v>
@@ -2784,18 +2895,21 @@
         <v>1198.28</v>
       </c>
       <c r="U8">
+        <v>1198.28</v>
+      </c>
+      <c r="V8">
         <v>18</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>8907.219999999999</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>8907.219999999999</v>
@@ -2804,46 +2918,46 @@
         <v>8907.219999999999</v>
       </c>
       <c r="E9">
+        <v>8907.219999999999</v>
+      </c>
+      <c r="F9">
         <v>300.86</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9208.08</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3923.06</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>97.27</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>353.07</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2267.58</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6847.34</v>
-      </c>
-      <c r="M9">
-        <v>2360.74</v>
       </c>
       <c r="N9">
         <v>2360.74</v>
       </c>
       <c r="O9">
+        <v>2360.74</v>
+      </c>
+      <c r="P9">
         <v>416.2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-5.88</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>410.32</v>
-      </c>
-      <c r="R9">
-        <v>1950.42</v>
       </c>
       <c r="S9">
         <v>1950.42</v>
@@ -2852,18 +2966,21 @@
         <v>1950.42</v>
       </c>
       <c r="U9">
-        <v>28</v>
+        <v>1950.42</v>
       </c>
       <c r="V9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>12517.82</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>12517.82</v>
@@ -2872,46 +2989,46 @@
         <v>12517.82</v>
       </c>
       <c r="E10">
+        <v>12517.82</v>
+      </c>
+      <c r="F10">
         <v>378.84</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>12896.66</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4628.61</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>76.45999999999999</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>441.91</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3038.99</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8445.459999999999</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4451.2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4544.74</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>924.55</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-70.09999999999999</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>840.02</v>
-      </c>
-      <c r="R10">
-        <v>3704.72</v>
       </c>
       <c r="S10">
         <v>3704.72</v>
@@ -2920,18 +3037,21 @@
         <v>3704.72</v>
       </c>
       <c r="U10">
+        <v>3704.72</v>
+      </c>
+      <c r="V10">
         <v>53.32</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>52.45</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>16497.37</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>16497.37</v>
@@ -2940,46 +3060,46 @@
         <v>16497.37</v>
       </c>
       <c r="E11">
+        <v>16497.37</v>
+      </c>
+      <c r="F11">
         <v>659.12</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>17156.49</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5123.95</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>81.65000000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>490.7</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3652.41</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9758.83</v>
-      </c>
-      <c r="M11">
-        <v>7397.66</v>
       </c>
       <c r="N11">
         <v>7397.66</v>
       </c>
       <c r="O11">
+        <v>7397.66</v>
+      </c>
+      <c r="P11">
         <v>1555.74</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-26.79</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1413.04</v>
-      </c>
-      <c r="R11">
-        <v>5984.62</v>
       </c>
       <c r="S11">
         <v>5984.62</v>
@@ -2988,18 +3108,21 @@
         <v>5984.62</v>
       </c>
       <c r="U11">
+        <v>5984.62</v>
+      </c>
+      <c r="V11">
         <v>85.66</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>84.51000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>17153.44</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>17153.44</v>
@@ -3008,46 +3131,46 @@
         <v>17153.44</v>
       </c>
       <c r="E12">
+        <v>17153.44</v>
+      </c>
+      <c r="F12">
         <v>1199.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>18352.94</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5924.62</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>60.64</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>299.92</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4071.69</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10654.4</v>
-      </c>
-      <c r="M12">
-        <v>7698.54</v>
       </c>
       <c r="N12">
         <v>7698.54</v>
       </c>
       <c r="O12">
+        <v>7698.54</v>
+      </c>
+      <c r="P12">
         <v>1610.45</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>52.57</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1352.59</v>
-      </c>
-      <c r="R12">
-        <v>6345.95</v>
       </c>
       <c r="S12">
         <v>6345.95</v>
@@ -3056,18 +3179,21 @@
         <v>6345.95</v>
       </c>
       <c r="U12">
-        <v>45</v>
+        <v>6345.95</v>
       </c>
       <c r="V12">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>13434.64</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
       <c r="C13">
         <v>13434.64</v>
@@ -3076,46 +3202,46 @@
         <v>13434.64</v>
       </c>
       <c r="E13">
+        <v>13434.64</v>
+      </c>
+      <c r="F13">
         <v>968.42</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14403.06</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4866.92</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>45.82</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>276.89</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3316.01</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8621.51</v>
-      </c>
-      <c r="M13">
-        <v>5781.55</v>
       </c>
       <c r="N13">
         <v>5781.55</v>
       </c>
       <c r="O13">
+        <v>5781.55</v>
+      </c>
+      <c r="P13">
         <v>1269.6</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-207.13</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1062.47</v>
-      </c>
-      <c r="R13">
-        <v>4719.08</v>
       </c>
       <c r="S13">
         <v>4719.08</v>
@@ -3124,18 +3250,21 @@
         <v>4719.08</v>
       </c>
       <c r="U13">
+        <v>4719.08</v>
+      </c>
+      <c r="V13">
         <v>33.52</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>33.43</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>19318</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
       </c>
       <c r="C14">
         <v>19318</v>
@@ -3144,46 +3273,46 @@
         <v>19318</v>
       </c>
       <c r="E14">
+        <v>19318</v>
+      </c>
+      <c r="F14">
         <v>956</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20274</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2219</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6844</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>55</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>478</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2239</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>11998</v>
-      </c>
-      <c r="M14">
-        <v>8276</v>
       </c>
       <c r="N14">
         <v>8276</v>
       </c>
       <c r="O14">
+        <v>8276</v>
+      </c>
+      <c r="P14">
         <v>1537</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-134</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1403</v>
-      </c>
-      <c r="R14">
-        <v>6873</v>
       </c>
       <c r="S14">
         <v>6873</v>
@@ -3192,18 +3321,21 @@
         <v>6873</v>
       </c>
       <c r="U14">
+        <v>6873</v>
+      </c>
+      <c r="V14">
         <v>48.18</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>48.13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>22073</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
       </c>
       <c r="C15">
         <v>22073</v>
@@ -3212,46 +3344,46 @@
         <v>22073</v>
       </c>
       <c r="E15">
+        <v>22073</v>
+      </c>
+      <c r="F15">
         <v>702</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>22775</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2918</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7365</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>23</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>893</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2263</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>13650</v>
-      </c>
-      <c r="M15">
-        <v>9125</v>
       </c>
       <c r="N15">
         <v>9125</v>
       </c>
       <c r="O15">
+        <v>9125</v>
+      </c>
+      <c r="P15">
         <v>1987</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-224</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1763</v>
-      </c>
-      <c r="R15">
-        <v>7362</v>
       </c>
       <c r="S15">
         <v>7362</v>
@@ -3260,18 +3392,21 @@
         <v>7362</v>
       </c>
       <c r="U15">
-        <v>52.54</v>
+        <v>7362</v>
       </c>
       <c r="V15">
         <v>52.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>26012</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
       <c r="C16">
         <v>26012</v>
@@ -3280,46 +3415,46 @@
         <v>26012</v>
       </c>
       <c r="E16">
+        <v>26012</v>
+      </c>
+      <c r="F16">
         <v>805</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26817</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4901</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8079</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1276</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2450</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>16886</v>
-      </c>
-      <c r="M16">
-        <v>9931</v>
       </c>
       <c r="N16">
         <v>9931</v>
       </c>
       <c r="O16">
+        <v>9931</v>
+      </c>
+      <c r="P16">
         <v>2354</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-608</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1746</v>
-      </c>
-      <c r="R16">
-        <v>8185</v>
       </c>
       <c r="S16">
         <v>8185</v>
@@ -3328,18 +3463,21 @@
         <v>8185</v>
       </c>
       <c r="U16">
+        <v>8185</v>
+      </c>
+      <c r="V16">
         <v>59.69</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>59.66</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>32606</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17">
         <v>32606</v>
@@ -3348,46 +3486,46 @@
         <v>32606</v>
       </c>
       <c r="E17">
+        <v>32606</v>
+      </c>
+      <c r="F17">
         <v>587</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>33193</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>7207</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9916</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>238</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1952</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2555</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>22016</v>
-      </c>
-      <c r="M17">
-        <v>11177</v>
       </c>
       <c r="N17">
         <v>11177</v>
       </c>
       <c r="O17">
+        <v>11177</v>
+      </c>
+      <c r="P17">
         <v>1965</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>243</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2208</v>
-      </c>
-      <c r="R17">
-        <v>8969</v>
       </c>
       <c r="S17">
         <v>8969</v>
@@ -3396,18 +3534,21 @@
         <v>8969</v>
       </c>
       <c r="U17">
+        <v>8969</v>
+      </c>
+      <c r="V17">
         <v>33.06</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>33.05</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>35673</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18">
         <v>35673</v>
@@ -3416,46 +3557,46 @@
         <v>35673</v>
       </c>
       <c r="E18">
+        <v>35673</v>
+      </c>
+      <c r="F18">
         <v>965</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>36638</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7515</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>11749</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>177</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2813</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1835</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>24228</v>
-      </c>
-      <c r="M18">
-        <v>12410</v>
       </c>
       <c r="N18">
         <v>12410</v>
       </c>
       <c r="O18">
+        <v>12410</v>
+      </c>
+      <c r="P18">
         <v>2480</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1187</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3667</v>
-      </c>
-      <c r="R18">
-        <v>8743</v>
       </c>
       <c r="S18">
         <v>8743</v>
@@ -3464,18 +3605,21 @@
         <v>8743</v>
       </c>
       <c r="U18">
-        <v>32.22</v>
+        <v>8743</v>
       </c>
       <c r="V18">
         <v>32.22</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>40638</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="C19">
         <v>40638</v>
@@ -3484,46 +3628,46 @@
         <v>40638</v>
       </c>
       <c r="E19">
+        <v>40638</v>
+      </c>
+      <c r="F19">
         <v>880</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>41518</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7277</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>15872</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>109</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2615</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2227</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>28250</v>
-      </c>
-      <c r="M19">
-        <v>13268</v>
       </c>
       <c r="N19">
         <v>13268</v>
       </c>
       <c r="O19">
+        <v>13268</v>
+      </c>
+      <c r="P19">
         <v>2464</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-70</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2394</v>
-      </c>
-      <c r="R19">
-        <v>10874</v>
       </c>
       <c r="S19">
         <v>10874</v>
@@ -3532,18 +3676,21 @@
         <v>10874</v>
       </c>
       <c r="U19">
+        <v>10874</v>
+      </c>
+      <c r="V19">
         <v>40.1</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>40.09</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>46276</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20">
         <v>46276</v>
@@ -3552,46 +3699,46 @@
         <v>46276</v>
       </c>
       <c r="E20">
+        <v>46276</v>
+      </c>
+      <c r="F20">
         <v>1031</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>47307</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7291</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>19799</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>127</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2431</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2787</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>32591</v>
-      </c>
-      <c r="M20">
-        <v>14716</v>
       </c>
       <c r="N20">
         <v>14716</v>
       </c>
       <c r="O20">
+        <v>14716</v>
+      </c>
+      <c r="P20">
         <v>3045</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>212</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3257</v>
-      </c>
-      <c r="R20">
-        <v>11459</v>
       </c>
       <c r="S20">
         <v>11459</v>
@@ -3600,18 +3747,21 @@
         <v>11459</v>
       </c>
       <c r="U20">
+        <v>11459</v>
+      </c>
+      <c r="V20">
         <v>42.32</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>42.27</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>48118</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21">
         <v>48118</v>
@@ -3620,46 +3770,46 @@
         <v>48118</v>
       </c>
       <c r="E21">
+        <v>48118</v>
+      </c>
+      <c r="F21">
         <v>1076</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>49194</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>7105</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20965</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>125</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2371</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3027</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>33738</v>
-      </c>
-      <c r="M21">
-        <v>15456</v>
       </c>
       <c r="N21">
         <v>15456</v>
       </c>
       <c r="O21">
+        <v>15456</v>
+      </c>
+      <c r="P21">
         <v>2873</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>909</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3782</v>
-      </c>
-      <c r="R21">
-        <v>11674</v>
       </c>
       <c r="S21">
         <v>11674</v>
@@ -3668,9 +3818,12 @@
         <v>11674</v>
       </c>
       <c r="U21">
+        <v>11674</v>
+      </c>
+      <c r="V21">
         <v>43.11</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>43.02</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>3836.21</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>4045.91</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>4771.44</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>4054.4</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>4247.59</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>4385.95</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>4465.5</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>4350.15</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>4471.85</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>4612.64</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>4608.8</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>4705.77</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>4889.26</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>5114.48</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>5179</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>5460</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>5723</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>5711</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>6013</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>6485</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>6556</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>6958</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>6765</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>8130</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>8654</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>9057</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>8362</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>8658</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>9404</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>9249</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>9556</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>9786</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>10662</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>10634</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>10817</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>11424</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>12398</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>11637</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>11451</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>12059</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>12531</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>12077</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>11784</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>12615</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>13274</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>45.33</v>
+      </c>
+      <c r="D2">
+        <v>12.9</v>
+      </c>
+      <c r="E2">
+        <v>10.78</v>
+      </c>
+      <c r="F2">
+        <v>10.62</v>
+      </c>
+      <c r="G2">
+        <v>10.32</v>
+      </c>
+      <c r="H2">
+        <v>28.44</v>
+      </c>
+      <c r="I2">
+        <v>23.77</v>
+      </c>
+      <c r="J2">
+        <v>23.42</v>
+      </c>
+      <c r="K2">
+        <v>22.75</v>
+      </c>
+      <c r="L2">
+        <v>11.51</v>
+      </c>
+      <c r="M2">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.03</v>
+      </c>
+      <c r="O2">
+        <v>152.38</v>
+      </c>
+      <c r="P2">
+        <v>126.43</v>
+      </c>
+      <c r="Q2">
+        <v>-52.38</v>
+      </c>
+      <c r="R2">
+        <v>12425.85</v>
+      </c>
+      <c r="S2">
+        <v>30.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>93.77</v>
+      </c>
+      <c r="D3">
+        <v>24.84</v>
+      </c>
+      <c r="E3">
+        <v>20.55</v>
+      </c>
+      <c r="F3">
+        <v>20.21</v>
+      </c>
+      <c r="G3">
+        <v>19.74</v>
+      </c>
+      <c r="H3">
+        <v>26.49</v>
+      </c>
+      <c r="I3">
+        <v>21.91</v>
+      </c>
+      <c r="J3">
+        <v>21.55</v>
+      </c>
+      <c r="K3">
+        <v>21.04</v>
+      </c>
+      <c r="L3">
+        <v>24.78</v>
+      </c>
+      <c r="M3">
+        <v>17.13</v>
+      </c>
+      <c r="N3">
+        <v>0.01</v>
+      </c>
+      <c r="O3">
+        <v>80.84</v>
+      </c>
+      <c r="P3">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>19.16</v>
+      </c>
+      <c r="R3">
+        <v>16147.58</v>
+      </c>
+      <c r="S3">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>56.78</v>
+      </c>
+      <c r="D4">
+        <v>20.6</v>
+      </c>
+      <c r="E4">
+        <v>17.91</v>
+      </c>
+      <c r="F4">
+        <v>17.74</v>
+      </c>
+      <c r="G4">
+        <v>16.6</v>
+      </c>
+      <c r="H4">
+        <v>36.27</v>
+      </c>
+      <c r="I4">
+        <v>31.54</v>
+      </c>
+      <c r="J4">
+        <v>31.24</v>
+      </c>
+      <c r="K4">
+        <v>29.23</v>
+      </c>
+      <c r="L4">
+        <v>32.16</v>
+      </c>
+      <c r="M4">
+        <v>22.48</v>
+      </c>
+      <c r="N4">
+        <v>0.01</v>
+      </c>
+      <c r="O4">
+        <v>47.7</v>
+      </c>
+      <c r="P4">
+        <v>41.06</v>
+      </c>
+      <c r="Q4">
+        <v>52.3</v>
+      </c>
+      <c r="R4">
+        <v>22491.23</v>
+      </c>
+      <c r="S4">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="D5">
+        <v>16.66</v>
+      </c>
+      <c r="E5">
+        <v>13.39</v>
+      </c>
+      <c r="F5">
+        <v>13.13</v>
+      </c>
+      <c r="G5">
+        <v>11.72</v>
+      </c>
+      <c r="H5">
+        <v>24.05</v>
+      </c>
+      <c r="I5">
+        <v>19.33</v>
+      </c>
+      <c r="J5">
+        <v>18.96</v>
+      </c>
+      <c r="K5">
+        <v>16.91</v>
+      </c>
+      <c r="L5">
+        <v>24.29</v>
+      </c>
+      <c r="M5">
+        <v>13.47</v>
+      </c>
+      <c r="N5">
+        <v>0.01</v>
+      </c>
+      <c r="O5">
+        <v>76.67</v>
+      </c>
+      <c r="P5">
+        <v>59.94</v>
+      </c>
+      <c r="Q5">
+        <v>23.33</v>
+      </c>
+      <c r="R5">
+        <v>16043.84</v>
+      </c>
+      <c r="S5">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>69.75</v>
+      </c>
+      <c r="D6">
+        <v>21.95</v>
+      </c>
+      <c r="E6">
+        <v>18.19</v>
+      </c>
+      <c r="F6">
+        <v>17.81</v>
+      </c>
+      <c r="G6">
+        <v>14.88</v>
+      </c>
+      <c r="H6">
+        <v>31.46</v>
+      </c>
+      <c r="I6">
+        <v>26.08</v>
+      </c>
+      <c r="J6">
+        <v>25.53</v>
+      </c>
+      <c r="K6">
+        <v>21.33</v>
+      </c>
+      <c r="L6">
+        <v>28.59</v>
+      </c>
+      <c r="M6">
+        <v>15.11</v>
+      </c>
+      <c r="N6">
+        <v>0.15</v>
+      </c>
+      <c r="O6">
+        <v>47.08</v>
+      </c>
+      <c r="P6">
+        <v>37.59</v>
+      </c>
+      <c r="Q6">
+        <v>52.92</v>
+      </c>
+      <c r="R6">
+        <v>11594.44</v>
+      </c>
+      <c r="S6">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>74.81999999999999</v>
+      </c>
+      <c r="D7">
+        <v>22.46</v>
+      </c>
+      <c r="E7">
+        <v>18.42</v>
+      </c>
+      <c r="F7">
+        <v>16.98</v>
+      </c>
+      <c r="G7">
+        <v>15.56</v>
+      </c>
+      <c r="H7">
+        <v>30.01</v>
+      </c>
+      <c r="I7">
+        <v>24.62</v>
+      </c>
+      <c r="J7">
+        <v>22.69</v>
+      </c>
+      <c r="K7">
+        <v>20.79</v>
+      </c>
+      <c r="L7">
+        <v>21.4</v>
+      </c>
+      <c r="M7">
+        <v>12.43</v>
+      </c>
+      <c r="N7">
+        <v>0.28</v>
+      </c>
+      <c r="O7">
+        <v>25.58</v>
+      </c>
+      <c r="P7">
+        <v>20.31</v>
+      </c>
+      <c r="Q7">
+        <v>74.42</v>
+      </c>
+      <c r="R7">
+        <v>25177.37</v>
+      </c>
+      <c r="S7">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>98.66</v>
+      </c>
+      <c r="D8">
+        <v>24.43</v>
+      </c>
+      <c r="E8">
+        <v>20.2</v>
+      </c>
+      <c r="F8">
+        <v>18.73</v>
+      </c>
+      <c r="G8">
+        <v>17.4</v>
+      </c>
+      <c r="H8">
+        <v>24.76</v>
+      </c>
+      <c r="I8">
+        <v>20.47</v>
+      </c>
+      <c r="J8">
+        <v>18.98</v>
+      </c>
+      <c r="K8">
+        <v>17.63</v>
+      </c>
+      <c r="L8">
+        <v>20.45</v>
+      </c>
+      <c r="M8">
+        <v>13.21</v>
+      </c>
+      <c r="N8">
+        <v>0.14</v>
+      </c>
+      <c r="O8">
+        <v>42.93</v>
+      </c>
+      <c r="P8">
+        <v>34.53</v>
+      </c>
+      <c r="Q8">
+        <v>57.07</v>
+      </c>
+      <c r="R8">
+        <v>33877.6</v>
+      </c>
+      <c r="S8">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>128.48</v>
+      </c>
+      <c r="D9">
+        <v>40.55</v>
+      </c>
+      <c r="E9">
+        <v>35.45</v>
+      </c>
+      <c r="F9">
+        <v>34.05</v>
+      </c>
+      <c r="G9">
+        <v>28.13</v>
+      </c>
+      <c r="H9">
+        <v>31.55</v>
+      </c>
+      <c r="I9">
+        <v>27.59</v>
+      </c>
+      <c r="J9">
+        <v>26.5</v>
+      </c>
+      <c r="K9">
+        <v>21.89</v>
+      </c>
+      <c r="L9">
+        <v>29.53</v>
+      </c>
+      <c r="M9">
+        <v>17.93</v>
+      </c>
+      <c r="N9">
+        <v>0.11</v>
+      </c>
+      <c r="O9">
+        <v>42.58</v>
+      </c>
+      <c r="P9">
+        <v>36.05</v>
+      </c>
+      <c r="Q9">
+        <v>57.42</v>
+      </c>
+      <c r="R9">
+        <v>32672.62</v>
+      </c>
+      <c r="S9">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>179.63</v>
+      </c>
+      <c r="D10">
+        <v>71.31</v>
+      </c>
+      <c r="E10">
+        <v>64.97</v>
+      </c>
+      <c r="F10">
+        <v>65.22</v>
+      </c>
+      <c r="G10">
+        <v>53.16</v>
+      </c>
+      <c r="H10">
+        <v>39.69</v>
+      </c>
+      <c r="I10">
+        <v>36.16</v>
+      </c>
+      <c r="J10">
+        <v>36.3</v>
+      </c>
+      <c r="K10">
+        <v>29.59</v>
+      </c>
+      <c r="L10">
+        <v>36.2</v>
+      </c>
+      <c r="M10">
+        <v>23.21</v>
+      </c>
+      <c r="N10">
+        <v>0.06</v>
+      </c>
+      <c r="O10">
+        <v>22.54</v>
+      </c>
+      <c r="P10">
+        <v>20.14</v>
+      </c>
+      <c r="Q10">
+        <v>77.45999999999999</v>
+      </c>
+      <c r="R10">
+        <v>51888.84</v>
+      </c>
+      <c r="S10">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>235.68</v>
+      </c>
+      <c r="D11">
+        <v>113.86</v>
+      </c>
+      <c r="E11">
+        <v>106.85</v>
+      </c>
+      <c r="F11">
+        <v>105.68</v>
+      </c>
+      <c r="G11">
+        <v>85.48999999999999</v>
+      </c>
+      <c r="H11">
+        <v>48.31</v>
+      </c>
+      <c r="I11">
+        <v>45.33</v>
+      </c>
+      <c r="J11">
+        <v>44.84</v>
+      </c>
+      <c r="K11">
+        <v>36.27</v>
+      </c>
+      <c r="L11">
+        <v>38</v>
+      </c>
+      <c r="M11">
+        <v>27.43</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>11.7</v>
+      </c>
+      <c r="P11">
+        <v>10.81</v>
+      </c>
+      <c r="Q11">
+        <v>88.3</v>
+      </c>
+      <c r="R11">
+        <v>96904.12</v>
+      </c>
+      <c r="S11">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>45.33</v>
-      </c>
-      <c r="C2">
-        <v>12.9</v>
-      </c>
-      <c r="D2">
-        <v>10.78</v>
-      </c>
-      <c r="E2">
-        <v>10.62</v>
-      </c>
-      <c r="F2">
-        <v>10.32</v>
-      </c>
-      <c r="G2">
-        <v>28.44</v>
-      </c>
-      <c r="H2">
-        <v>23.77</v>
-      </c>
-      <c r="I2">
-        <v>23.42</v>
-      </c>
-      <c r="J2">
-        <v>22.75</v>
-      </c>
-      <c r="K2">
-        <v>11.51</v>
-      </c>
-      <c r="L2">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.03</v>
-      </c>
-      <c r="N2">
-        <v>152.38</v>
-      </c>
-      <c r="O2">
-        <v>126.43</v>
-      </c>
-      <c r="P2">
-        <v>-52.38</v>
-      </c>
-      <c r="Q2">
-        <v>12425.85</v>
-      </c>
-      <c r="R2">
-        <v>30.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>93.77</v>
-      </c>
-      <c r="C3">
-        <v>24.84</v>
-      </c>
-      <c r="D3">
-        <v>20.55</v>
-      </c>
-      <c r="E3">
-        <v>20.21</v>
-      </c>
-      <c r="F3">
-        <v>19.74</v>
-      </c>
-      <c r="G3">
-        <v>26.49</v>
-      </c>
-      <c r="H3">
-        <v>21.91</v>
-      </c>
-      <c r="I3">
-        <v>21.55</v>
-      </c>
-      <c r="J3">
-        <v>21.04</v>
-      </c>
-      <c r="K3">
-        <v>24.78</v>
-      </c>
-      <c r="L3">
-        <v>17.13</v>
-      </c>
-      <c r="M3">
+      <c r="D12">
+        <v>57.32</v>
+      </c>
+      <c r="E12">
+        <v>55.19</v>
+      </c>
+      <c r="F12">
+        <v>54.75</v>
+      </c>
+      <c r="G12">
+        <v>45.13</v>
+      </c>
+      <c r="H12">
+        <v>46.98</v>
+      </c>
+      <c r="I12">
+        <v>45.23</v>
+      </c>
+      <c r="J12">
+        <v>44.88</v>
+      </c>
+      <c r="K12">
+        <v>36.99</v>
+      </c>
+      <c r="L12">
+        <v>32.7</v>
+      </c>
+      <c r="M12">
+        <v>25.47</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>37.59</v>
+      </c>
+      <c r="P12">
+        <v>35.89</v>
+      </c>
+      <c r="Q12">
+        <v>62.41</v>
+      </c>
+      <c r="R12">
+        <v>120697.44</v>
+      </c>
+      <c r="S12">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>95.25</v>
+      </c>
+      <c r="D13">
+        <v>43.28</v>
+      </c>
+      <c r="E13">
+        <v>41.32</v>
+      </c>
+      <c r="F13">
+        <v>40.99</v>
+      </c>
+      <c r="G13">
+        <v>33.46</v>
+      </c>
+      <c r="H13">
+        <v>45.43</v>
+      </c>
+      <c r="I13">
+        <v>43.37</v>
+      </c>
+      <c r="J13">
+        <v>43.03</v>
+      </c>
+      <c r="K13">
+        <v>35.12</v>
+      </c>
+      <c r="L13">
+        <v>21.95</v>
+      </c>
+      <c r="M13">
+        <v>17.74</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>57.16</v>
+      </c>
+      <c r="P13">
+        <v>53.99</v>
+      </c>
+      <c r="Q13">
+        <v>42.84</v>
+      </c>
+      <c r="R13">
+        <v>106192.95</v>
+      </c>
+      <c r="S13">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>135.56</v>
+      </c>
+      <c r="D14">
+        <v>61.82</v>
+      </c>
+      <c r="E14">
+        <v>58.46</v>
+      </c>
+      <c r="F14">
+        <v>58.08</v>
+      </c>
+      <c r="G14">
+        <v>48.23</v>
+      </c>
+      <c r="H14">
+        <v>45.59</v>
+      </c>
+      <c r="I14">
+        <v>43.12</v>
+      </c>
+      <c r="J14">
+        <v>42.84</v>
+      </c>
+      <c r="K14">
+        <v>35.57</v>
+      </c>
+      <c r="L14">
+        <v>26.46</v>
+      </c>
+      <c r="M14">
+        <v>21.23</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>49.26</v>
+      </c>
+      <c r="P14">
+        <v>46.06</v>
+      </c>
+      <c r="Q14">
+        <v>50.74</v>
+      </c>
+      <c r="R14">
+        <v>116478.63</v>
+      </c>
+      <c r="S14">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>158.8</v>
+      </c>
+      <c r="D15">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="E15">
+        <v>65.81</v>
+      </c>
+      <c r="F15">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="G15">
+        <v>52.96</v>
+      </c>
+      <c r="H15">
+        <v>45.48</v>
+      </c>
+      <c r="I15">
+        <v>41.44</v>
+      </c>
+      <c r="J15">
+        <v>41.34</v>
+      </c>
+      <c r="K15">
+        <v>33.35</v>
+      </c>
+      <c r="L15">
+        <v>26.7</v>
+      </c>
+      <c r="M15">
+        <v>22.43</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>22.98</v>
+      </c>
+      <c r="P15">
+        <v>20.49</v>
+      </c>
+      <c r="Q15">
+        <v>77.02</v>
+      </c>
+      <c r="R15">
+        <v>132468.5</v>
+      </c>
+      <c r="S15">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>191.97</v>
+      </c>
+      <c r="D16">
+        <v>82.83</v>
+      </c>
+      <c r="E16">
+        <v>73.41</v>
+      </c>
+      <c r="F16">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="G16">
+        <v>60.41</v>
+      </c>
+      <c r="H16">
+        <v>43.14</v>
+      </c>
+      <c r="I16">
+        <v>38.24</v>
+      </c>
+      <c r="J16">
+        <v>38.17</v>
+      </c>
+      <c r="K16">
+        <v>31.46</v>
+      </c>
+      <c r="L16">
+        <v>26.88</v>
+      </c>
+      <c r="M16">
+        <v>21.85</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.42</v>
+      </c>
+      <c r="P16">
+        <v>11.61</v>
+      </c>
+      <c r="Q16">
+        <v>86.58</v>
+      </c>
+      <c r="R16">
+        <v>141183</v>
+      </c>
+      <c r="S16">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>120.1</v>
+      </c>
+      <c r="D17">
+        <v>49.23</v>
+      </c>
+      <c r="E17">
+        <v>42.04</v>
+      </c>
+      <c r="F17">
+        <v>41.17</v>
+      </c>
+      <c r="G17">
+        <v>33.03</v>
+      </c>
+      <c r="H17">
+        <v>40.99</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>34.27</v>
+      </c>
+      <c r="K17">
+        <v>27.5</v>
+      </c>
+      <c r="L17">
+        <v>24.04</v>
+      </c>
+      <c r="M17">
+        <v>16.75</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>15.12</v>
+      </c>
+      <c r="P17">
+        <v>12.42</v>
+      </c>
+      <c r="Q17">
+        <v>84.88</v>
+      </c>
+      <c r="R17">
+        <v>117446.63</v>
+      </c>
+      <c r="S17">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>131.39</v>
+      </c>
+      <c r="D18">
+        <v>56.72</v>
+      </c>
+      <c r="E18">
+        <v>46.36</v>
+      </c>
+      <c r="F18">
+        <v>45.71</v>
+      </c>
+      <c r="G18">
+        <v>32.2</v>
+      </c>
+      <c r="H18">
+        <v>43.16</v>
+      </c>
+      <c r="I18">
+        <v>35.28</v>
+      </c>
+      <c r="J18">
+        <v>34.78</v>
+      </c>
+      <c r="K18">
+        <v>24.5</v>
+      </c>
+      <c r="L18">
+        <v>20.07</v>
+      </c>
+      <c r="M18">
+        <v>15.79</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>37.25</v>
+      </c>
+      <c r="P18">
+        <v>28.18</v>
+      </c>
+      <c r="Q18">
+        <v>62.75</v>
+      </c>
+      <c r="R18">
+        <v>262157.68</v>
+      </c>
+      <c r="S18">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>149.68</v>
+      </c>
+      <c r="D19">
+        <v>58.9</v>
+      </c>
+      <c r="E19">
+        <v>49.27</v>
+      </c>
+      <c r="F19">
+        <v>48.87</v>
+      </c>
+      <c r="G19">
+        <v>40.05</v>
+      </c>
+      <c r="H19">
+        <v>39.35</v>
+      </c>
+      <c r="I19">
+        <v>32.91</v>
+      </c>
+      <c r="J19">
+        <v>32.64</v>
+      </c>
+      <c r="K19">
+        <v>26.75</v>
+      </c>
+      <c r="L19">
+        <v>25.53</v>
+      </c>
+      <c r="M19">
+        <v>20.35</v>
+      </c>
+      <c r="N19">
         <v>0.01</v>
       </c>
-      <c r="N3">
-        <v>80.84</v>
-      </c>
-      <c r="O3">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="P3">
-        <v>19.16</v>
-      </c>
-      <c r="Q3">
-        <v>16147.58</v>
-      </c>
-      <c r="R3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>56.78</v>
-      </c>
-      <c r="C4">
-        <v>20.6</v>
-      </c>
-      <c r="D4">
-        <v>17.91</v>
-      </c>
-      <c r="E4">
-        <v>17.74</v>
-      </c>
-      <c r="F4">
-        <v>16.6</v>
-      </c>
-      <c r="G4">
-        <v>36.27</v>
-      </c>
-      <c r="H4">
-        <v>31.54</v>
-      </c>
-      <c r="I4">
-        <v>31.24</v>
-      </c>
-      <c r="J4">
-        <v>29.23</v>
-      </c>
-      <c r="K4">
-        <v>32.16</v>
-      </c>
-      <c r="L4">
-        <v>22.48</v>
-      </c>
-      <c r="M4">
-        <v>0.01</v>
-      </c>
-      <c r="N4">
-        <v>47.7</v>
-      </c>
-      <c r="O4">
-        <v>41.06</v>
-      </c>
-      <c r="P4">
-        <v>52.3</v>
-      </c>
-      <c r="Q4">
-        <v>22491.23</v>
-      </c>
-      <c r="R4">
-        <v>16.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="C5">
-        <v>16.66</v>
-      </c>
-      <c r="D5">
-        <v>13.39</v>
-      </c>
-      <c r="E5">
-        <v>13.13</v>
-      </c>
-      <c r="F5">
-        <v>11.72</v>
-      </c>
-      <c r="G5">
-        <v>24.05</v>
-      </c>
-      <c r="H5">
-        <v>19.33</v>
-      </c>
-      <c r="I5">
-        <v>18.96</v>
-      </c>
-      <c r="J5">
-        <v>16.91</v>
-      </c>
-      <c r="K5">
-        <v>24.29</v>
-      </c>
-      <c r="L5">
-        <v>13.47</v>
-      </c>
-      <c r="M5">
-        <v>0.01</v>
-      </c>
-      <c r="N5">
-        <v>76.67</v>
-      </c>
-      <c r="O5">
-        <v>59.94</v>
-      </c>
-      <c r="P5">
-        <v>23.33</v>
-      </c>
-      <c r="Q5">
-        <v>16043.84</v>
-      </c>
-      <c r="R5">
-        <v>14.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>69.75</v>
-      </c>
-      <c r="C6">
-        <v>21.95</v>
-      </c>
-      <c r="D6">
-        <v>18.19</v>
-      </c>
-      <c r="E6">
-        <v>17.81</v>
-      </c>
-      <c r="F6">
-        <v>14.88</v>
-      </c>
-      <c r="G6">
-        <v>31.46</v>
-      </c>
-      <c r="H6">
-        <v>26.08</v>
-      </c>
-      <c r="I6">
-        <v>25.53</v>
-      </c>
-      <c r="J6">
-        <v>21.33</v>
-      </c>
-      <c r="K6">
-        <v>28.59</v>
-      </c>
-      <c r="L6">
-        <v>15.11</v>
-      </c>
-      <c r="M6">
-        <v>0.15</v>
-      </c>
-      <c r="N6">
-        <v>47.08</v>
-      </c>
-      <c r="O6">
-        <v>37.59</v>
-      </c>
-      <c r="P6">
-        <v>52.92</v>
-      </c>
-      <c r="Q6">
-        <v>11594.44</v>
-      </c>
-      <c r="R6">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>74.81999999999999</v>
-      </c>
-      <c r="C7">
-        <v>22.46</v>
-      </c>
-      <c r="D7">
-        <v>18.42</v>
-      </c>
-      <c r="E7">
-        <v>16.98</v>
-      </c>
-      <c r="F7">
-        <v>15.56</v>
-      </c>
-      <c r="G7">
-        <v>30.01</v>
-      </c>
-      <c r="H7">
-        <v>24.62</v>
-      </c>
-      <c r="I7">
-        <v>22.69</v>
-      </c>
-      <c r="J7">
-        <v>20.79</v>
-      </c>
-      <c r="K7">
-        <v>21.4</v>
-      </c>
-      <c r="L7">
-        <v>12.43</v>
-      </c>
-      <c r="M7">
-        <v>0.28</v>
-      </c>
-      <c r="N7">
-        <v>25.58</v>
-      </c>
-      <c r="O7">
-        <v>20.31</v>
-      </c>
-      <c r="P7">
-        <v>74.42</v>
-      </c>
-      <c r="Q7">
-        <v>25177.37</v>
-      </c>
-      <c r="R7">
-        <v>16.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>98.66</v>
-      </c>
-      <c r="C8">
-        <v>24.43</v>
-      </c>
-      <c r="D8">
-        <v>20.2</v>
-      </c>
-      <c r="E8">
-        <v>18.73</v>
-      </c>
-      <c r="F8">
-        <v>17.4</v>
-      </c>
-      <c r="G8">
+      <c r="O19">
+        <v>104.75</v>
+      </c>
+      <c r="P19">
+        <v>84.44</v>
+      </c>
+      <c r="Q19">
+        <v>-4.75</v>
+      </c>
+      <c r="R19">
+        <v>311226.53</v>
+      </c>
+      <c r="S19">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>170.45</v>
+      </c>
+      <c r="D20">
+        <v>63.62</v>
+      </c>
+      <c r="E20">
+        <v>54.67</v>
+      </c>
+      <c r="F20">
+        <v>54.2</v>
+      </c>
+      <c r="G20">
+        <v>42.21</v>
+      </c>
+      <c r="H20">
+        <v>37.32</v>
+      </c>
+      <c r="I20">
+        <v>32.07</v>
+      </c>
+      <c r="J20">
+        <v>31.8</v>
+      </c>
+      <c r="K20">
         <v>24.76</v>
       </c>
-      <c r="H8">
-        <v>20.47</v>
-      </c>
-      <c r="I8">
-        <v>18.98</v>
-      </c>
-      <c r="J8">
-        <v>17.63</v>
-      </c>
-      <c r="K8">
-        <v>20.45</v>
-      </c>
-      <c r="L8">
-        <v>13.21</v>
-      </c>
-      <c r="M8">
-        <v>0.14</v>
-      </c>
-      <c r="N8">
-        <v>42.93</v>
-      </c>
-      <c r="O8">
-        <v>34.53</v>
-      </c>
-      <c r="P8">
-        <v>57.07</v>
-      </c>
-      <c r="Q8">
-        <v>33877.6</v>
-      </c>
-      <c r="R8">
-        <v>20.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>128.48</v>
-      </c>
-      <c r="C9">
-        <v>40.55</v>
-      </c>
-      <c r="D9">
-        <v>35.45</v>
-      </c>
-      <c r="E9">
-        <v>34.05</v>
-      </c>
-      <c r="F9">
-        <v>28.13</v>
-      </c>
-      <c r="G9">
-        <v>31.55</v>
-      </c>
-      <c r="H9">
-        <v>27.59</v>
-      </c>
-      <c r="I9">
-        <v>26.5</v>
-      </c>
-      <c r="J9">
-        <v>21.89</v>
-      </c>
-      <c r="K9">
-        <v>29.53</v>
-      </c>
-      <c r="L9">
-        <v>17.93</v>
-      </c>
-      <c r="M9">
-        <v>0.11</v>
-      </c>
-      <c r="N9">
-        <v>42.58</v>
-      </c>
-      <c r="O9">
-        <v>36.05</v>
-      </c>
-      <c r="P9">
-        <v>57.42</v>
-      </c>
-      <c r="Q9">
-        <v>32672.62</v>
-      </c>
-      <c r="R9">
-        <v>11.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>179.63</v>
-      </c>
-      <c r="C10">
-        <v>71.31</v>
-      </c>
-      <c r="D10">
-        <v>64.97</v>
-      </c>
-      <c r="E10">
-        <v>65.22</v>
-      </c>
-      <c r="F10">
-        <v>53.16</v>
-      </c>
-      <c r="G10">
-        <v>39.69</v>
-      </c>
-      <c r="H10">
-        <v>36.16</v>
-      </c>
-      <c r="I10">
-        <v>36.3</v>
-      </c>
-      <c r="J10">
-        <v>29.59</v>
-      </c>
-      <c r="K10">
-        <v>36.2</v>
-      </c>
-      <c r="L10">
-        <v>23.21</v>
-      </c>
-      <c r="M10">
-        <v>0.06</v>
-      </c>
-      <c r="N10">
-        <v>22.54</v>
-      </c>
-      <c r="O10">
-        <v>20.14</v>
-      </c>
-      <c r="P10">
-        <v>77.45999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>51888.84</v>
-      </c>
-      <c r="R10">
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>235.68</v>
-      </c>
-      <c r="C11">
-        <v>113.86</v>
-      </c>
-      <c r="D11">
-        <v>106.85</v>
-      </c>
-      <c r="E11">
-        <v>105.68</v>
-      </c>
-      <c r="F11">
-        <v>85.48999999999999</v>
-      </c>
-      <c r="G11">
-        <v>48.31</v>
-      </c>
-      <c r="H11">
-        <v>45.33</v>
-      </c>
-      <c r="I11">
-        <v>44.84</v>
-      </c>
-      <c r="J11">
-        <v>36.27</v>
-      </c>
-      <c r="K11">
-        <v>38</v>
-      </c>
-      <c r="L11">
-        <v>27.43</v>
-      </c>
-      <c r="M11">
+      <c r="L20">
+        <v>27.87</v>
+      </c>
+      <c r="M20">
+        <v>21.47</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>11.7</v>
-      </c>
-      <c r="O11">
-        <v>10.81</v>
-      </c>
-      <c r="P11">
-        <v>88.3</v>
-      </c>
-      <c r="Q11">
-        <v>96904.12</v>
-      </c>
-      <c r="R11">
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>122</v>
-      </c>
-      <c r="C12">
-        <v>57.32</v>
-      </c>
-      <c r="D12">
-        <v>55.19</v>
-      </c>
-      <c r="E12">
-        <v>54.75</v>
-      </c>
-      <c r="F12">
-        <v>45.13</v>
-      </c>
-      <c r="G12">
-        <v>46.98</v>
-      </c>
-      <c r="H12">
-        <v>45.23</v>
-      </c>
-      <c r="I12">
-        <v>44.88</v>
-      </c>
-      <c r="J12">
-        <v>36.99</v>
-      </c>
-      <c r="K12">
-        <v>32.7</v>
-      </c>
-      <c r="L12">
-        <v>25.47</v>
-      </c>
-      <c r="M12">
+      <c r="O20">
+        <v>113.4</v>
+      </c>
+      <c r="P20">
+        <v>93.55</v>
+      </c>
+      <c r="Q20">
+        <v>-13.4</v>
+      </c>
+      <c r="R20">
+        <v>288863.3</v>
+      </c>
+      <c r="S20">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>177.23</v>
+      </c>
+      <c r="D21">
+        <v>66.12</v>
+      </c>
+      <c r="E21">
+        <v>57.39</v>
+      </c>
+      <c r="F21">
+        <v>56.93</v>
+      </c>
+      <c r="G21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>37.3</v>
+      </c>
+      <c r="I21">
+        <v>32.38</v>
+      </c>
+      <c r="J21">
+        <v>32.12</v>
+      </c>
+      <c r="K21">
+        <v>24.26</v>
+      </c>
+      <c r="L21">
+        <v>29.57</v>
+      </c>
+      <c r="M21">
+        <v>22.31</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>37.59</v>
-      </c>
-      <c r="O12">
-        <v>35.89</v>
-      </c>
-      <c r="P12">
-        <v>62.41</v>
-      </c>
-      <c r="Q12">
-        <v>120697.44</v>
-      </c>
-      <c r="R12">
-        <v>14.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>95.25</v>
-      </c>
-      <c r="C13">
-        <v>43.28</v>
-      </c>
-      <c r="D13">
-        <v>41.32</v>
-      </c>
-      <c r="E13">
-        <v>40.99</v>
-      </c>
-      <c r="F13">
-        <v>33.46</v>
-      </c>
-      <c r="G13">
-        <v>45.43</v>
-      </c>
-      <c r="H13">
-        <v>43.37</v>
-      </c>
-      <c r="I13">
-        <v>43.03</v>
-      </c>
-      <c r="J13">
-        <v>35.12</v>
-      </c>
-      <c r="K13">
-        <v>21.95</v>
-      </c>
-      <c r="L13">
-        <v>17.74</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>57.16</v>
-      </c>
-      <c r="O13">
-        <v>53.99</v>
-      </c>
-      <c r="P13">
-        <v>42.84</v>
-      </c>
-      <c r="Q13">
-        <v>106192.95</v>
-      </c>
-      <c r="R13">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>135.56</v>
-      </c>
-      <c r="C14">
-        <v>61.82</v>
-      </c>
-      <c r="D14">
-        <v>58.46</v>
-      </c>
-      <c r="E14">
-        <v>58.08</v>
-      </c>
-      <c r="F14">
-        <v>48.23</v>
-      </c>
-      <c r="G14">
-        <v>45.59</v>
-      </c>
-      <c r="H14">
-        <v>43.12</v>
-      </c>
-      <c r="I14">
-        <v>42.84</v>
-      </c>
-      <c r="J14">
-        <v>35.57</v>
-      </c>
-      <c r="K14">
-        <v>26.46</v>
-      </c>
-      <c r="L14">
-        <v>21.23</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>49.26</v>
-      </c>
-      <c r="O14">
-        <v>46.06</v>
-      </c>
-      <c r="P14">
-        <v>50.74</v>
-      </c>
-      <c r="Q14">
-        <v>116478.63</v>
-      </c>
-      <c r="R14">
-        <v>13.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>158.8</v>
-      </c>
-      <c r="C15">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="D15">
-        <v>65.81</v>
-      </c>
-      <c r="E15">
-        <v>65.65000000000001</v>
-      </c>
-      <c r="F15">
-        <v>52.96</v>
-      </c>
-      <c r="G15">
-        <v>45.48</v>
-      </c>
-      <c r="H15">
-        <v>41.44</v>
-      </c>
-      <c r="I15">
-        <v>41.34</v>
-      </c>
-      <c r="J15">
-        <v>33.35</v>
-      </c>
-      <c r="K15">
-        <v>26.7</v>
-      </c>
-      <c r="L15">
-        <v>22.43</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>22.98</v>
-      </c>
-      <c r="O15">
-        <v>20.49</v>
-      </c>
-      <c r="P15">
-        <v>77.02</v>
-      </c>
-      <c r="Q15">
-        <v>132468.5</v>
-      </c>
-      <c r="R15">
-        <v>13.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>191.97</v>
-      </c>
-      <c r="C16">
-        <v>82.83</v>
-      </c>
-      <c r="D16">
-        <v>73.41</v>
-      </c>
-      <c r="E16">
-        <v>73.29000000000001</v>
-      </c>
-      <c r="F16">
-        <v>60.41</v>
-      </c>
-      <c r="G16">
-        <v>43.14</v>
-      </c>
-      <c r="H16">
-        <v>38.24</v>
-      </c>
-      <c r="I16">
-        <v>38.17</v>
-      </c>
-      <c r="J16">
-        <v>31.46</v>
-      </c>
-      <c r="K16">
-        <v>26.88</v>
-      </c>
-      <c r="L16">
-        <v>21.85</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>13.42</v>
-      </c>
-      <c r="O16">
-        <v>11.61</v>
-      </c>
-      <c r="P16">
-        <v>86.58</v>
-      </c>
-      <c r="Q16">
-        <v>141183</v>
-      </c>
-      <c r="R16">
-        <v>12.58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>120.1</v>
-      </c>
-      <c r="C17">
-        <v>49.23</v>
-      </c>
-      <c r="D17">
-        <v>42.04</v>
-      </c>
-      <c r="E17">
-        <v>41.17</v>
-      </c>
-      <c r="F17">
-        <v>33.03</v>
-      </c>
-      <c r="G17">
-        <v>40.99</v>
-      </c>
-      <c r="H17">
-        <v>35</v>
-      </c>
-      <c r="I17">
-        <v>34.27</v>
-      </c>
-      <c r="J17">
-        <v>27.5</v>
-      </c>
-      <c r="K17">
-        <v>24.04</v>
-      </c>
-      <c r="L17">
-        <v>16.75</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>15.12</v>
-      </c>
-      <c r="O17">
-        <v>12.42</v>
-      </c>
-      <c r="P17">
-        <v>84.88</v>
-      </c>
-      <c r="Q17">
-        <v>117446.63</v>
-      </c>
-      <c r="R17">
-        <v>8.789999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>131.39</v>
-      </c>
-      <c r="C18">
-        <v>56.72</v>
-      </c>
-      <c r="D18">
-        <v>46.36</v>
-      </c>
-      <c r="E18">
-        <v>45.71</v>
-      </c>
-      <c r="F18">
-        <v>32.2</v>
-      </c>
-      <c r="G18">
-        <v>43.16</v>
-      </c>
-      <c r="H18">
-        <v>35.28</v>
-      </c>
-      <c r="I18">
-        <v>34.78</v>
-      </c>
-      <c r="J18">
-        <v>24.5</v>
-      </c>
-      <c r="K18">
-        <v>20.07</v>
-      </c>
-      <c r="L18">
-        <v>15.79</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>37.25</v>
-      </c>
-      <c r="O18">
-        <v>28.18</v>
-      </c>
-      <c r="P18">
-        <v>62.75</v>
-      </c>
-      <c r="Q18">
-        <v>262157.68</v>
-      </c>
-      <c r="R18">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>149.68</v>
-      </c>
-      <c r="C19">
-        <v>58.9</v>
-      </c>
-      <c r="D19">
-        <v>49.27</v>
-      </c>
-      <c r="E19">
-        <v>48.87</v>
-      </c>
-      <c r="F19">
-        <v>40.05</v>
-      </c>
-      <c r="G19">
-        <v>39.35</v>
-      </c>
-      <c r="H19">
-        <v>32.91</v>
-      </c>
-      <c r="I19">
-        <v>32.64</v>
-      </c>
-      <c r="J19">
-        <v>26.75</v>
-      </c>
-      <c r="K19">
-        <v>25.53</v>
-      </c>
-      <c r="L19">
-        <v>20.35</v>
-      </c>
-      <c r="M19">
-        <v>0.01</v>
-      </c>
-      <c r="N19">
-        <v>104.75</v>
-      </c>
-      <c r="O19">
-        <v>84.44</v>
-      </c>
-      <c r="P19">
-        <v>-4.75</v>
-      </c>
-      <c r="Q19">
-        <v>311226.53</v>
-      </c>
-      <c r="R19">
-        <v>19.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>170.45</v>
-      </c>
-      <c r="C20">
-        <v>63.62</v>
-      </c>
-      <c r="D20">
-        <v>54.67</v>
-      </c>
-      <c r="E20">
-        <v>54.2</v>
-      </c>
-      <c r="F20">
-        <v>42.21</v>
-      </c>
-      <c r="G20">
-        <v>37.32</v>
-      </c>
-      <c r="H20">
-        <v>32.07</v>
-      </c>
-      <c r="I20">
-        <v>31.8</v>
-      </c>
-      <c r="J20">
-        <v>24.76</v>
-      </c>
-      <c r="K20">
-        <v>27.87</v>
-      </c>
-      <c r="L20">
-        <v>21.47</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>113.4</v>
-      </c>
-      <c r="O20">
-        <v>93.55</v>
-      </c>
-      <c r="P20">
-        <v>-13.4</v>
-      </c>
-      <c r="Q20">
-        <v>288863.3</v>
-      </c>
-      <c r="R20">
-        <v>16.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>177.23</v>
-      </c>
-      <c r="C21">
-        <v>66.12</v>
-      </c>
-      <c r="D21">
-        <v>57.39</v>
-      </c>
-      <c r="E21">
-        <v>56.93</v>
-      </c>
-      <c r="F21">
-        <v>43</v>
-      </c>
-      <c r="G21">
-        <v>37.3</v>
-      </c>
-      <c r="H21">
-        <v>32.38</v>
-      </c>
-      <c r="I21">
-        <v>32.12</v>
-      </c>
-      <c r="J21">
-        <v>24.26</v>
-      </c>
-      <c r="K21">
-        <v>29.57</v>
-      </c>
-      <c r="L21">
-        <v>22.31</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
         <v>120.6</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>100.24</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-20.6</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>411429.95</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>22.92</v>
       </c>
     </row>
